--- a/Etapa 1 e 2/yakult-final_2.xlsx
+++ b/Etapa 1 e 2/yakult-final_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioamaralegydiomartins/Desktop/Antônio/GitHub - Pessoal/INSPER/CDados_Projeto1/Etapa 1 e 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F93CA5-8C96-5B49-8140-AED2BF19DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4119DF14-1B4A-634F-B883-95E70CAD4241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="7800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA78AF97-7254-4B43-9492-82641F42BF94}"/>
   </bookViews>
@@ -9524,7 +9524,7 @@
   <dimension ref="A1:C321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
